--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/19_Bolu_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/19_Bolu_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0657188-A0D0-4672-AD67-538AC57C97BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B278220-CCD5-41E7-92CE-3C9E88E62946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{760716DA-72DC-458D-90D5-D9447285B39D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{011917D4-CC45-488C-9766-57F22AA09A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B5C67E60-C3F4-41E7-B709-3A08DC985BF0}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0CDAE700-F070-42A6-B370-1E33170AFCE9}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{92CCE922-8BAE-4FEE-8100-58498D40F771}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{2591B973-9ABA-4FFD-8202-FAF9DD074022}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8FC6A755-C090-49BF-8D9E-987289FFE700}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{384C7BB6-174A-4EDE-869D-7B93A2539CFE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{312501EA-CA3F-4596-9FF1-712A6C6CC99D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{90FB1699-3D93-42AE-9ED2-1C518D0AA36C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{668DF402-24E8-4A96-951D-643CFD4725DF}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{725F4026-BEE0-412C-B5D1-8FEA68202FAC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D0766ADA-655F-4396-AD70-50767911B0ED}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{15526A73-6F56-40CB-BE28-EE1C511DEA66}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{A3ADF736-835E-4589-8BAF-37B90CC949B6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{D355CACA-81DF-4EE8-9960-3FA217408E46}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AD0FB2-D038-405A-B210-B5803C4D809B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37DD8E7-63BE-44F9-A76A-E187A2B2E423}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2559,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1D5A1-30F3-47C4-9A14-C48101C9C415}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63E970D-FA8D-49FA-B4F3-34D7262F8467}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3782,7 +3782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDCFC10-8214-4738-A4E1-71E729C301A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02894EDD-9FA3-4474-AD74-1E0B0872CF94}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5005,7 +5005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A4B334-4348-433D-B542-A743BAC7F29C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAA5933-8C5D-42A4-8141-3EBF3BEAA714}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6212,7 +6212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11775EE-F89B-4906-A8B6-993943E74D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD6E6D4-1C3E-4012-8C84-1236D7F7ED80}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7479,7 +7479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D1E989-894C-4B37-BEDF-B599F1F15374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5163449-286F-4CEE-82F0-DEB81E2272F0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8746,7 +8746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9124B-A15A-43FB-9A4F-C9C60FE2643A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2901F5-B5E7-4DF6-A299-809D25EB5F93}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10013,7 +10013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65D319-E1C9-41E8-9456-E2BA3FF9C193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A94F14-8787-4BB0-8F5F-680410FD4537}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11280,7 +11280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2004F46C-CEFB-43CD-BBFE-6E524C7C6BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5861AF-416E-4B69-9668-1CF8082E1061}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12541,7 +12541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AB7594-FEFE-4A6A-84A4-28792D7242F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD055B0-78D4-40FC-B8FF-1D4709176E67}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13788,7 +13788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1321D276-773D-40AA-BDEB-D6134796C397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFC8238-C830-498E-BFC3-ACD3E20F92A9}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15035,7 +15035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442202E4-E992-4FEF-8A22-F91620B1AED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCE589F-72B0-4E91-A751-36784D2105E4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
